--- a/compilation.xlsx
+++ b/compilation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGS\Documents\GitHub\bias_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B1FFF5-7BDC-441D-9F18-A35F1E1570F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578CBA9B-345B-4072-9ADC-A9BE1B7A408A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CADIS Eye color" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
   <si>
     <t>TR_method</t>
   </si>
@@ -48,9 +49,6 @@
     <t>Perfect (original results reproduced)</t>
   </si>
   <si>
-    <t>Acceptable with red reflex, bad overall - lighting conditions?</t>
-  </si>
-  <si>
     <t>Together - good lighting</t>
   </si>
   <si>
@@ -76,6 +74,39 @@
   </si>
   <si>
     <t>Good - perfect with good red reflex</t>
+  </si>
+  <si>
+    <t>Pupil</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Iris color</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad - Partial iris segmented </t>
+  </si>
+  <si>
+    <t>Really bad (no segmentation)</t>
+  </si>
+  <si>
+    <t>Bad - Partial iris segmented, sometimes full iris segmented</t>
+  </si>
+  <si>
+    <t>19 light eyes</t>
+  </si>
+  <si>
+    <t>6 dark eye</t>
   </si>
 </sst>
 </file>
@@ -120,7 +151,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -159,16 +196,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>449581</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36271</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>43891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>227009</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91441</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -191,7 +228,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7124701" y="219151"/>
+          <a:off x="13243561" y="43891"/>
           <a:ext cx="4654228" cy="2432610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -203,15 +240,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>249827</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>176807</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>10397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -247,15 +284,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>234664</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>119713</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -293,13 +330,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F06CD-74DC-4D76-9D41-1B39625597DF}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F06CD-74DC-4D76-9D41-1B39625597DF}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G13" xr:uid="{5E3F06CD-74DC-4D76-9D41-1B39625597DF}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Iris"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F6C9C67F-859C-4CD0-9764-D1F003D1C57C}" name="TR_method" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{05EEC537-E2E9-497F-B51C-C740354469ED}" name="img_size" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{F69974A2-BDEB-4555-B75D-A60675B69F8C}" name="dataset" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C483015E-BEBD-4408-A3AD-8CC6FA4CC007}" name="Lighting" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{F77FB4E1-2F70-4676-A2AC-F240BE2CBDE8}" name="Segmentation" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{379632F7-BD32-4AC4-B06D-61FE1782ACCB}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DE49640A-745A-4F22-8A71-0171F85F7C11}" name="Iris color" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{C483015E-BEBD-4408-A3AD-8CC6FA4CC007}" name="Lighting" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F77FB4E1-2F70-4676-A2AC-F240BE2CBDE8}" name="Segmentation" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,8 +625,8 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -594,92 +640,304 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>512</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>512</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>512</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>512</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>512</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>512</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>512</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>512</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>512</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>512</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>512</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>512</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>512</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>512</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>512</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -689,4 +947,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE991736-3082-461F-90A3-0AD18E65AFC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>